--- a/R14-117_R14-118_samplesheet.xlsx
+++ b/R14-117_R14-118_samplesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halperse\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB671F4D-0FE8-4AB1-B5B9-D7F77F6A08D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5255939-E486-4459-928F-69EA188DF43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2745" windowWidth="26205" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="26205" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,15 +59,9 @@
     <t>R14-117</t>
   </si>
   <si>
-    <t>R14-117.xls</t>
-  </si>
-  <si>
     <t>R14-118</t>
   </si>
   <si>
-    <t>R14-118.xls</t>
-  </si>
-  <si>
     <t>/content/Input_Folder_Rep2</t>
   </si>
   <si>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>/content/</t>
+  </si>
+  <si>
+    <t>R14-117.xlsx</t>
+  </si>
+  <si>
+    <t>R14-118.xlsx</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,7 +521,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -530,32 +530,32 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -564,32 +564,32 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -598,32 +598,32 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -632,27 +632,27 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
